--- a/src/assets/Test.xlsx
+++ b/src/assets/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\React\dashboard\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5919CDA1-BCFC-4D19-B53D-86757D983256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E2D4E1-E526-4108-90B9-1786D5A8E40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{14970F3B-3299-49FC-9294-0880C0527D8E}"/>
   </bookViews>
